--- a/package.xlsx
+++ b/package.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,214 +52,115 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Female employees should have completed 90 days after joining the Organisation. Maternity Leave can be availed by female employees for maximum two children only. </x:t>
+    <x:t>Create Marketing data_02</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>Login URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to login</x:t>
+    <x:t>Login UserId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Id should be entered</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>Login as HR into the Absence Management System</x:t>
+    <x:t>Enter Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Password should be entered</x:t>
   </x:si>
   <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>Enter Password</x:t>
+    <x:t>Sign in</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Login Button should be clicked</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>Sign in</x:t>
+    <x:t>ClickOnMarketingData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to Marketing data page</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>Locate the 'My Clients Group' option and click on it</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the 'My Clients Group' page</x:t>
+    <x:t>Click on Marketing location</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to Marketing locations page</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>From the options displayed, click on 'Person Management' option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the 'Person Management: Search' page</x:t>
+    <x:t>Click on Create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to new marketing location page</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>In the Search window, under the 'Name' option, input the employee name and click on 'Search'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Employee searched should be displayed in the 'Search Results' window</x:t>
+    <x:t>Enter Location Na,e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location name should be entered</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>click on search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>search result should display</x:t>
+    <x:t>Select marketing are</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should get drop down list</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>In the 'Search Results' window, inline to the employee name, click on the 'Action' dropdown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the options</x:t>
+    <x:t>Enter location type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Location type should be entered</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>Select 'Action'-&gt;'Absences'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the 'Employee: Person Management' screen</x:t>
+    <x:t>Enter the URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL should be entered</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>Select'Absences' -&gt; 'Absences Management Record'</x:t>
+    <x:t>Enter image URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image URL should be entered</x:t>
   </x:si>
   <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
-    <x:t>Scroll the page to locate the 'Exisiting Absences' window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User shouls be able to locate the 'Existing Absences; window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under the 'Existing Absences' click on the '+Add' button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the 'Absence Administration' page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the  Absence Type' dropdown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the 'Details' that need to be input</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Select the option 'Maternity Leave'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should select maternity leave</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fill in information for the 'Planned Dates' Expected Childbirth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Check whether the person return </x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Planned Start Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Planned End Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> information for the 'Actual Dates'   Actual Childbirth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actual Start Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actual End Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
     <x:t>click on Save</x:t>
   </x:si>
   <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>click on Submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Confirmation window indicating the request was submitted successfully needs to be displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'OK'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the previous page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on 'Done'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maternity Leave is successfully applied for a female employee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click Sign Out</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should logged out</x:t>
+    <x:t>Details should be saved</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2</x:t>
@@ -268,46 +169,49 @@
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>If the employee does not have any Leave balance, then he/she may apply for Loss of Pay (LOP) that will be processed in payroll.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Login to the portal as an employee</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the 'ME' section and locate 'Add Absence'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to locate the 'Add Absence' option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the 'Add Absence' option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the 'Add Absence' page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>On the 'Add Absence' page, from the 'Type*' dropdown, select 'Loss of Pay (LOP)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to select the option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under the 'When' tab, click on the 'Add+' option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to click on the 'Add + ' button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input data into the 'Start Date' , 'End Date' and select the option under the 'Assignment; dropdown and click on 'OK"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data input should be saved</x:t>
-  </x:si>
-  <x:si>
-    <x:t>At the top of the page click on the option 'Submit'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to successfully submit 'LOP' request</x:t>
+    <x:t>Select an already created scenarion and edit it with new values</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click On Recommendation Module</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to Recommendations page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Recommendation Scenario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>use should navigate to list of recommendation scenario</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click On Edit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the data to be verified</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select Model type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should see the list of Models</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select communication medium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use should see the list of communication medium</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select user Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the list of user type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Datas should be modified as per data entered</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -316,46 +220,97 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>HR should be able to enroll the Privilege leave to an employee( If employee joins the organization at the start of the month then, Privilege leave (PL) will be accrual of 2.5 days per month. This accrual of 2.5 days will be done after 1 month the employee joins.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ensure integration between Reveiw Balance Leave and Absence Management</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scroll down the page to locate the 'Plan Balances' window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to locate the 'Plan Balances' window</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under 'Plan Balances' click on the dropdown next to 'Enrollments and Adjustments'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is displayed a list of option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the 'Add Enrollment'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Add Enrollment window pops-up</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the '* Select Plan' dropdown, select 'PL-Privilege Leave'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to select 'PL- Privilege Leave'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input the '* Start Date' and click on submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to successfully enroll the employee into the privilege leave plan</x:t>
+    <x:t>Select contact module and create a new contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Contacts and Profile Module</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to respective module page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ClickOnContacts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to list of contact page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select any one of the contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contact should be checked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on create target group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User shoud navigate to create new contact page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter the first name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select group type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user should see the list of group type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select marketing area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should see the drop down list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A new contact should be created</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on campaign and management and creat a new customer journey manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on Campaign and management</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to campaign and management page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on customer journey manager</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to respective page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should navigate to create new customer journey page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enter description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Text should be entered</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user shoud get drop down box</x:t>
+  </x:si>
+  <x:si>
+    <x:t>click on create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A new journey shoud be create</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -439,8 +394,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J60" totalsRowShown="0">
-  <x:autoFilter ref="A1:J60"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J44" totalsRowShown="0">
+  <x:autoFilter ref="A1:J44"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -745,7 +700,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J60"/>
+  <x:dimension ref="A1:J44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -753,12 +708,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="229.13062499999998" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="71.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="72.980624999999989" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="104.130625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="85.980624999999989" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="54.700625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -831,7 +786,9 @@
       <x:c r="G3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s"/>
+      <x:c r="H3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
     </x:row>
@@ -842,12 +799,14 @@
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
     </x:row>
@@ -858,12 +817,14 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s"/>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
     </x:row>
@@ -874,13 +835,13 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -892,13 +853,13 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -910,13 +871,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -928,13 +889,13 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -946,13 +907,13 @@
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -964,13 +925,13 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -982,13 +943,13 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -1000,31 +961,37 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
+      <x:c r="A14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -1036,13 +1003,13 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1054,13 +1021,13 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1072,12 +1039,14 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s"/>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
     </x:row>
@@ -1088,12 +1057,14 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
     </x:row>
@@ -1104,12 +1075,14 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
     </x:row>
@@ -1120,12 +1093,14 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
     </x:row>
@@ -1136,12 +1111,14 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
     </x:row>
@@ -1152,12 +1129,14 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s"/>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
     </x:row>
@@ -1168,28 +1147,38 @@
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s"/>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
+      <x:c r="A24" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
     </x:row>
@@ -1200,13 +1189,13 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1218,13 +1207,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1236,13 +1225,13 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
@@ -1254,37 +1243,31 @@
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
     </x:row>
     <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B29" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s"/>
       <x:c r="F29" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1296,13 +1279,13 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1314,13 +1297,13 @@
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1332,13 +1315,13 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1350,13 +1333,13 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1368,31 +1351,37 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
     </x:row>
     <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s"/>
-      <x:c r="B35" s="0" t="s"/>
-      <x:c r="C35" s="0" t="s"/>
+      <x:c r="A35" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1404,39 +1393,31 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
+      <x:c r="A37" s="0" t="s"/>
+      <x:c r="B37" s="0" t="s"/>
+      <x:c r="C37" s="0" t="s"/>
+      <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1448,12 +1429,14 @@
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
     </x:row>
@@ -1464,12 +1447,14 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s"/>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
     </x:row>
@@ -1480,12 +1465,14 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s"/>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
     </x:row>
@@ -1496,12 +1483,14 @@
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s"/>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
     </x:row>
@@ -1512,12 +1501,14 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s"/>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
     </x:row>
@@ -1528,12 +1519,14 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s"/>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
     </x:row>
@@ -1544,304 +1537,16 @@
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s"/>
       <x:c r="F44" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s"/>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s"/>
-      <x:c r="B45" s="0" t="s"/>
-      <x:c r="C45" s="0" t="s"/>
-      <x:c r="D45" s="0" t="s"/>
-      <x:c r="E45" s="0" t="s"/>
-      <x:c r="F45" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s"/>
-      <x:c r="I45" s="0" t="s"/>
-      <x:c r="J45" s="0" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s"/>
-      <x:c r="B46" s="0" t="s"/>
-      <x:c r="C46" s="0" t="s"/>
-      <x:c r="D46" s="0" t="s"/>
-      <x:c r="E46" s="0" t="s"/>
-      <x:c r="F46" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s"/>
-      <x:c r="I46" s="0" t="s"/>
-      <x:c r="J46" s="0" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="0" t="s"/>
-      <x:c r="B47" s="0" t="s"/>
-      <x:c r="C47" s="0" t="s"/>
-      <x:c r="D47" s="0" t="s"/>
-      <x:c r="E47" s="0" t="s"/>
-      <x:c r="F47" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s"/>
-      <x:c r="J47" s="0" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s"/>
-      <x:c r="B48" s="0" t="s"/>
-      <x:c r="C48" s="0" t="s"/>
-      <x:c r="D48" s="0" t="s"/>
-      <x:c r="E48" s="0" t="s"/>
-      <x:c r="F48" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G48" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="s"/>
-      <x:c r="J48" s="0" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s"/>
-      <x:c r="B49" s="0" t="s"/>
-      <x:c r="C49" s="0" t="s"/>
-      <x:c r="D49" s="0" t="s"/>
-      <x:c r="E49" s="0" t="s"/>
-      <x:c r="F49" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s"/>
-      <x:c r="J49" s="0" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:10">
-      <x:c r="A50" s="0" t="s"/>
-      <x:c r="B50" s="0" t="s"/>
-      <x:c r="C50" s="0" t="s"/>
-      <x:c r="D50" s="0" t="s"/>
-      <x:c r="E50" s="0" t="s"/>
-      <x:c r="F50" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="G50" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="s"/>
-      <x:c r="J50" s="0" t="s"/>
-    </x:row>
-    <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s"/>
-      <x:c r="B51" s="0" t="s"/>
-      <x:c r="C51" s="0" t="s"/>
-      <x:c r="D51" s="0" t="s"/>
-      <x:c r="E51" s="0" t="s"/>
-      <x:c r="F51" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s"/>
-      <x:c r="J51" s="0" t="s"/>
-    </x:row>
-    <x:row r="52" spans="1:10">
-      <x:c r="A52" s="0" t="s"/>
-      <x:c r="B52" s="0" t="s"/>
-      <x:c r="C52" s="0" t="s"/>
-      <x:c r="D52" s="0" t="s"/>
-      <x:c r="E52" s="0" t="s"/>
-      <x:c r="F52" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G52" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I52" s="0" t="s"/>
-      <x:c r="J52" s="0" t="s"/>
-    </x:row>
-    <x:row r="53" spans="1:10">
-      <x:c r="A53" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C53" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s"/>
-      <x:c r="E53" s="0" t="s"/>
-      <x:c r="F53" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G53" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="H53" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I53" s="0" t="s"/>
-      <x:c r="J53" s="0" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:10">
-      <x:c r="A54" s="0" t="s"/>
-      <x:c r="B54" s="0" t="s"/>
-      <x:c r="C54" s="0" t="s"/>
-      <x:c r="D54" s="0" t="s"/>
-      <x:c r="E54" s="0" t="s"/>
-      <x:c r="F54" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s"/>
-      <x:c r="J54" s="0" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:10">
-      <x:c r="A55" s="0" t="s"/>
-      <x:c r="B55" s="0" t="s"/>
-      <x:c r="C55" s="0" t="s"/>
-      <x:c r="D55" s="0" t="s"/>
-      <x:c r="E55" s="0" t="s"/>
-      <x:c r="F55" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G55" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H55" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="I55" s="0" t="s"/>
-      <x:c r="J55" s="0" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:10">
-      <x:c r="A56" s="0" t="s"/>
-      <x:c r="B56" s="0" t="s"/>
-      <x:c r="C56" s="0" t="s"/>
-      <x:c r="D56" s="0" t="s"/>
-      <x:c r="E56" s="0" t="s"/>
-      <x:c r="F56" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I56" s="0" t="s"/>
-      <x:c r="J56" s="0" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:10">
-      <x:c r="A57" s="0" t="s"/>
-      <x:c r="B57" s="0" t="s"/>
-      <x:c r="C57" s="0" t="s"/>
-      <x:c r="D57" s="0" t="s"/>
-      <x:c r="E57" s="0" t="s"/>
-      <x:c r="F57" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G57" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H57" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I57" s="0" t="s"/>
-      <x:c r="J57" s="0" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:10">
-      <x:c r="A58" s="0" t="s"/>
-      <x:c r="B58" s="0" t="s"/>
-      <x:c r="C58" s="0" t="s"/>
-      <x:c r="D58" s="0" t="s"/>
-      <x:c r="E58" s="0" t="s"/>
-      <x:c r="F58" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G58" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="I58" s="0" t="s"/>
-      <x:c r="J58" s="0" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:10">
-      <x:c r="A59" s="0" t="s"/>
-      <x:c r="B59" s="0" t="s"/>
-      <x:c r="C59" s="0" t="s"/>
-      <x:c r="D59" s="0" t="s"/>
-      <x:c r="E59" s="0" t="s"/>
-      <x:c r="F59" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G59" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="H59" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I59" s="0" t="s"/>
-      <x:c r="J59" s="0" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:10">
-      <x:c r="A60" s="0" t="s"/>
-      <x:c r="B60" s="0" t="s"/>
-      <x:c r="C60" s="0" t="s"/>
-      <x:c r="D60" s="0" t="s"/>
-      <x:c r="E60" s="0" t="s"/>
-      <x:c r="F60" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G60" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H60" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="s"/>
-      <x:c r="J60" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
